--- a/output/LPM/instance2_Schedule_vCp2n150s18d1.xlsx
+++ b/output/LPM/instance2_Schedule_vCp2n150s18d1.xlsx
@@ -525,17 +525,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BERNARDA ANGELICA EWERT RIVERA</t>
+          <t>CESAR FERRADA GUTIERREZ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GENERAL_3</t>
+          <t>GENERAL_2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>OTORRINO_3</t>
+          <t>TRAUMATO_1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -547,27 +547,27 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BLOQUE 1</t>
+          <t>BLOQUE 4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BERNARDA ANGELICA EWERT RIVERA</t>
+          <t>NAYADETH ESTEFANY CHAIHUEQUE ARIAS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>OTORRINO_3</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -604,96 +604,96 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BLOQUE 2</t>
+          <t>BLOQUE 8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BERNARDA ANGELICA EWERT RIVERA</t>
+          <t>MAURA MATUS NECUL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GENERAL_3</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>OTORRINO_3</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CIRUGIA GENERAL</t>
+          <t>CIRUGIA INFANTIL</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BLOQUE 6</t>
+          <t>BLOQUE 9</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SUSAN MACARENA OÑATE HUAIQUIL</t>
+          <t>DAVID ALONSO CALDERON VALENZUELA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>INFANTIL_3</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>GENERAL_1</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>GENERAL_2</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CIRUGIA GENERAL</t>
+          <t>CIRUGIA INFANTIL</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BLOQUE 8</t>
+          <t>BLOQUE 10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EMANUEL LLANQUINAO CANSECO</t>
+          <t>JOAQUIN IGNACIO VERDUGO BURGOS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -730,22 +730,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BLOQUE 9</t>
+          <t>BLOQUE 11</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DIEGO IGNACIO SEPULVEDA BADILLA</t>
+          <t>SOFIA EMILIA GODOY LAGOS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>INFANTIL_2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>OTORRINO_1</t>
+          <t>TRAUMATO_3</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,22 +757,22 @@
         <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BLOQUE 10</t>
+          <t>BLOQUE 12</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -782,12 +782,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>INFANTIL_3</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>GINECO_1</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,13 +799,13 @@
         <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>13</v>
@@ -814,22 +814,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BLOQUE 11</t>
+          <t>BLOQUE 13</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DAVID ALONSO CALDERON VALENZUELA</t>
+          <t>VICENTE FABIAN ESCOBAR LUENGO</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>INFANTIL_2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>GINECO_1</t>
+          <t>TRAUMATO_3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -841,37 +841,37 @@
         <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BLOQUE 12</t>
+          <t>BLOQUE 14</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SOFIA EMILIA GODOY LAGOS</t>
+          <t>ALONSO DAMIAN NOVOA SAEZ</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>INFANTIL_3</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -883,13 +883,13 @@
         <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
         <v>13</v>
@@ -898,22 +898,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BLOQUE 13</t>
+          <t>BLOQUE 15</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MARTIN GONZALEZ MORIS</t>
+          <t>DIEGO IGNACIO SEPULVEDA BADILLA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>INFANTIL_2</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>GINECO_2</t>
+          <t>TRAUMATO_2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -925,137 +925,137 @@
         <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BLOQUE 14</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>JOAQUIN IGNACIO VERDUGO BURGOS</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>INFANTIL_2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>GINECO_2</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>CIRUGIA INFANTIL</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
-      </c>
-      <c r="G14" t="n">
-        <v>4</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4</v>
-      </c>
-      <c r="J14" t="n">
-        <v>12</v>
-      </c>
+          <t>PABELLON 1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BLOQUE 15</t>
+          <t>BLOQUE 1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>VICENTE ANDRES DONOSO MONROY</t>
+          <t>JAVIERA AURORA HUAIQUIL MANQUEO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>INFANTIL_3</t>
+          <t>GENERAL_3</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CIRUGIA INFANTIL</t>
+          <t>CIRUGIA GENERAL</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H15" t="n">
         <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PABELLON 1</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>BLOQUE 3</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ROSA MARIA TERESA WILLSON SALDAÑA</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>GENERAL_1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>INFANTIL_1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>CIRUGIA GENERAL</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BLOQUE 0</t>
+          <t>BLOQUE 4</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>JAVIERA AURORA HUAIQUIL MANQUEO</t>
+          <t>MARCELA ANDREA JARA ROCHA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GENERAL_2</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>OFTALMO_2</t>
+          <t>TRAUMATO_3</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1067,37 +1067,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BLOQUE 1</t>
+          <t>BLOQUE 5</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CESAR FERRADA GUTIERREZ</t>
+          <t>NATALIA ANDREA RIFFO ITURRA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GENERAL_2</t>
+          <t>GENERAL_3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>INFANTIL_2</t>
+          <t>GINECO_3</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1106,40 +1106,40 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BLOQUE 3</t>
+          <t>BLOQUE 8</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LISETTE PATRICIA MUÑOZ ARRATIA</t>
+          <t>GIORGE ALEXANDER CACERES CIFUENTES</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GENERAL_3</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>GINECO_2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1154,34 +1154,34 @@
         <v>6</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BLOQUE 4</t>
+          <t>BLOQUE 9</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LISETTE PATRICIA MUÑOZ ARRATIA</t>
+          <t>DANIELA MACARENA TORRES VEGA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GENERAL_3</t>
+          <t>GENERAL_2</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>TRAUMATO_1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1190,40 +1190,40 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BLOQUE 8</t>
+          <t>BLOQUE 10</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MARCELA ANDREA JARA ROCHA</t>
+          <t>FRANCISCO JAVIER BORQUEZ BORQUEZ</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GENERAL_3</t>
+          <t>GENERAL_2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>TRAUMATO_1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1235,27 +1235,27 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BLOQUE 9</t>
+          <t>BLOQUE 12</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GIORGE ALEXANDER CACERES CIFUENTES</t>
+          <t>FERNANDA MACARENA IBAÑEZ ASTETE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>TRAUMATO_1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1292,12 +1292,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BLOQUE 10</t>
+          <t>BLOQUE 13</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MATIAS FERNANDO SAEZ TORRES</t>
+          <t>RAYDORETH ISABEL GODOY ALVARADO</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>INFANTIL_2</t>
+          <t>TRAUMATO_1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1334,22 +1334,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BLOQUE 11</t>
+          <t>BLOQUE 14</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MIRCY GRACIELA NAVARRO PRADO</t>
+          <t>KATHERINE SOLEDAD FLORES ESCALONA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>GENERAL_2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>INFANTIL_3</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1358,30 +1358,30 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BLOQUE 12</t>
+          <t>BLOQUE 15</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FERNANDA MACARENA IBAÑEZ ASTETE</t>
+          <t>JOSE MANUEL SAGREDO TAPIA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>OFTALMO_2</t>
+          <t>INFANTIL_2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1418,164 +1418,164 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BLOQUE 13</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>JOSE MANUEL SAGREDO TAPIA</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>GENERAL_2</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>GENERAL_1</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>CIRUGIA GENERAL</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>4</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>5</v>
-      </c>
+          <t>PABELLON 2</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BLOQUE 14</t>
+          <t>BLOQUE 0</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CAMILA BELEN SANHUEZA ROMERO</t>
+          <t>JOSE MANUEL CHANDIA CATRIUPAY</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>TRAUMATO_2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CIRUGIA GENERAL</t>
+          <t>OFTALMOLOGIA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G27" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BLOQUE 15</t>
+          <t>BLOQUE 1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ROSA MARIA TERESA WILLSON SALDAÑA</t>
+          <t>JOSE GARCES RIQUELME</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>GENERAL_2</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>INFANTIL_2</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>CIRUGIA GENERAL</t>
+          <t>OFTALMOLOGIA</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PABELLON 2</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+          <t>BLOQUE 2</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>JOSE GARCES RIQUELME</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>OFTALMO_1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>GENERAL_1</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>OFTALMOLOGIA</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BLOQUE 0</t>
+          <t>BLOQUE 3</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>JOSE OSCAR ISLA ROCHA</t>
+          <t>DESIDERIO AREVALO SOTO</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>GINECO_2</t>
+          <t>INFANTIL_2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1593,21 +1593,21 @@
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BLOQUE 1</t>
+          <t>BLOQUE 4</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DESIDERIO AREVALO SOTO</t>
+          <t>JOSE OSCAR ISLA ROCHA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>OFTALMO_3</t>
+          <t>GINECO_2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1644,12 +1644,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BLOQUE 2</t>
+          <t>BLOQUE 5</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ETELVINA DEL CARMEN SAEZ RAMIREZ</t>
+          <t>LUIS ALEJANDRO PACHECO LAGOS</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>TRAUMATO_3</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1686,7 +1686,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BLOQUE 3</t>
+          <t>BLOQUE 6</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>OFTALMO_3</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1710,40 +1710,40 @@
         </is>
       </c>
       <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
         <v>3</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BLOQUE 4</t>
+          <t>BLOQUE 7</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>JOSE MANUEL CHANDIA CATRIUPAY</t>
+          <t>CECILIA DEL CARMEN BARRALES GONZALEZ</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>GINECO_2</t>
+          <t>GENERAL_2</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1761,31 +1761,31 @@
         <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BLOQUE 5</t>
+          <t>BLOQUE 8</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>JOSE GARCES RIQUELME</t>
+          <t>ISAAC DE LA CRUZ INOSTROZA MELLAO</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>OFTALMO_3</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>INFANTIL_3</t>
+          <t>GENERAL_3</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1794,40 +1794,40 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BLOQUE 6</t>
+          <t>BLOQUE 9</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>JOSE GARCES RIQUELME</t>
+          <t>ETELVINA DEL CARMEN SAEZ RAMIREZ</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>OFTALMO_3</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>INFANTIL_3</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1836,35 +1836,35 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J36" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BLOQUE 7</t>
+          <t>BLOQUE 10</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MARGARITA ELENA CASTILLO CISTERNA</t>
+          <t>MARIA TERESA LEAL FERNANDEZ</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1878,40 +1878,40 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H37" t="n">
         <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BLOQUE 8</t>
+          <t>BLOQUE 11</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>LUIS ALEJANDRO PACHECO LAGOS</t>
+          <t>FILOMENA DEL CARMEN  JARA GODOY</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>OFTALMO_3</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>GINECO_3</t>
+          <t>OTORRINO_3</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1920,35 +1920,35 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BLOQUE 9</t>
+          <t>BLOQUE 12</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ISMAEL CONTRERAS RIQUELME</t>
+          <t>PASCUALA LUISA QUILALEO LINCOÑIR</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1962,40 +1962,40 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H39" t="n">
         <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BLOQUE 10</t>
+          <t>BLOQUE 13</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CECILIA DEL CARMEN BARRALES GONZALEZ</t>
+          <t>ISMAEL CONTRERAS RIQUELME</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>OFTALMO_2</t>
+          <t>OFTALMO_3</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>TRAUMATO_1</t>
+          <t>GINECO_3</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+      <c r="I40" t="n">
         <v>3</v>
       </c>
-      <c r="G40" t="n">
-        <v>7</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
       <c r="J40" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BLOQUE 11</t>
+          <t>BLOQUE 14</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>JOSE EDGARDO ERICES VALDEBENITO</t>
+          <t>ILVA MAGDALENA CARRASCO MALDONADO</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>OFTALMO_3</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>GINECO_3</t>
+          <t>TRAUMATO_3</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2046,30 +2046,30 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BLOQUE 12</t>
+          <t>BLOQUE 15</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ILVA MAGDALENA CARRASCO MALDONADO</t>
+          <t>JOSE EDGARDO ERICES VALDEBENITO</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>GINECO_3</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2088,7 +2088,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2100,172 +2100,172 @@
         <v>3</v>
       </c>
       <c r="J42" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BLOQUE 13</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>MARIA TERESA LEAL FERNANDEZ</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>OFTALMO_2</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>GENERAL_3</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>OFTALMOLOGIA</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>7</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>10</v>
-      </c>
+          <t>PABELLON 3</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BLOQUE 14</t>
+          <t>BLOQUE 0</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FILOMENA DEL CARMEN  JARA GODOY</t>
+          <t>ALEJANDRA MARISOL LIZANA MEZA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>OFTALMO_2</t>
+          <t>GINECO_3</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>GENERAL_3</t>
+          <t>INFANTIL_3</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>OFTALMOLOGIA</t>
+          <t>GINECOLOGIA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G44" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BLOQUE 15</t>
+          <t>BLOQUE 1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PASCUALA LUISA QUILALEO LINCOÑIR</t>
+          <t>PATRICIA VIVIANA  LEIVA CARRASCO</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>OFTALMO_3</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>GINECO_1</t>
+          <t>INFANTIL_2</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>OFTALMOLOGIA</t>
+          <t>GINECOLOGIA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PABELLON 3</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+          <t>BLOQUE 2</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>RAQUEL AURORA CONTADOR JIMENEZ</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>GINECO_1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>INFANTIL_1</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>GINECOLOGIA</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>4</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BLOQUE 0</t>
+          <t>BLOQUE 3</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PATRICIA VIVIANA  LEIVA CARRASCO</t>
+          <t>CATYBELL MARIA DURAN ULLOA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>GINECO_2</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>GINECO_1</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>TRAUMATO_3</t>
-        </is>
-      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>GINECOLOGIA</t>
@@ -2275,27 +2275,27 @@
         <v>4</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BLOQUE 1</t>
+          <t>BLOQUE 4</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PATRICIA RIQUELME GONZALEZ</t>
+          <t>MARIA TERESA ROMERO LEVIO</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>GINECO_2</t>
+          <t>OTORRINO_3</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
         <v>5</v>
@@ -2326,28 +2326,28 @@
         <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BLOQUE 2</t>
+          <t>BLOQUE 5</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ISABEL DEL CARMEN MONARES MARTÍNEZ</t>
+          <t>PATRICIA RIQUELME GONZALEZ</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GINECO_3</t>
+          <t>GINECO_2</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>INFANTIL_3</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2356,40 +2356,40 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
         <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BLOQUE 3</t>
+          <t>BLOQUE 6</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CATYBELL MARIA DURAN ULLOA</t>
+          <t>PATRICIA ALEJANDRA OLAVE RAMOS</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>GINECO_2</t>
+          <t>GINECO_3</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>OFTALMO_2</t>
+          <t>INFANTIL_2</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2401,37 +2401,37 @@
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I50" t="n">
         <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BLOQUE 4</t>
+          <t>BLOQUE 7</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PATRICIA ALEJANDRA OLAVE RAMOS</t>
+          <t>VILMA DEL PILAR VERA AGUAYO</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>GINECO_3</t>
+          <t>GINECO_2</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2440,35 +2440,35 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G51" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
         <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BLOQUE 5</t>
+          <t>BLOQUE 8</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ALEJANDRA MARISOL LIZANA MEZA</t>
+          <t>MARIA ELENA PEREIRA JIMENEZ</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>GINECO_1</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2478,128 +2478,128 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>GINECOLOGIA</t>
+          <t>OTORRINOLARINGOLOGIA</t>
         </is>
       </c>
       <c r="F52" t="n">
         <v>4</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BLOQUE 6</t>
+          <t>BLOQUE 9</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>RAQUEL AURORA CONTADOR JIMENEZ</t>
+          <t>JONATHAN PHILLIP FLORES SEGUEL</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GINECO_2</t>
+          <t>OTORRINO_3</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>GINECO_1</t>
+          <t>INFANTIL_2</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>GINECOLOGIA</t>
+          <t>OTORRINOLARINGOLOGIA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G53" t="n">
         <v>6</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I53" t="n">
         <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BLOQUE 7</t>
+          <t>BLOQUE 10</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MARIA TERESA ROMERO LEVIO</t>
+          <t>ELIA DEL CARMEN PEREIRA SOBARZO</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>GINECO_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>OTORRINO_3</t>
+          <t>TRAUMATO_3</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>GINECOLOGIA</t>
+          <t>OTORRINOLARINGOLOGIA</t>
         </is>
       </c>
       <c r="F54" t="n">
         <v>4</v>
       </c>
       <c r="G54" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BLOQUE 8</t>
+          <t>BLOQUE 11</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>LAURA CID PONSOT</t>
+          <t>JOCELYN MARISELLA MUÑOZ JARA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>OTORRINO_3</t>
+          <t>OTORRINO_2</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>TRAUMATO_1</t>
+          <t>OFTALMO_3</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2608,7 +2608,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G55" t="n">
         <v>6</v>
@@ -2620,18 +2620,18 @@
         <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BLOQUE 9</t>
+          <t>BLOQUE 12</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>HELMUTH FERNANDO ARIAS NAVARRO</t>
+          <t>ANIBAL EDUARDO BURDILES MEDINA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>TRAUMATO_2</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
         <v>6</v>
@@ -2662,28 +2662,28 @@
         <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BLOQUE 10</t>
+          <t>BLOQUE 13</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ANIBAL EDUARDO BURDILES MEDINA</t>
+          <t>HELMUTH FERNANDO ARIAS NAVARRO</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>OTORRINO_3</t>
+          <t>OTORRINO_2</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>GENERAL_3</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
         <v>6</v>
@@ -2704,28 +2704,28 @@
         <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BLOQUE 11</t>
+          <t>BLOQUE 14</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>JOCELYN MARISELLA MUÑOZ JARA</t>
+          <t>EDGARD NEFTALY MUÑOZ ROCHA</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>OTORRINO_1</t>
+          <t>OTORRINO_3</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>TRAUMATO_3</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2737,37 +2737,37 @@
         <v>4</v>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BLOQUE 12</t>
+          <t>BLOQUE 15</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>JONATHAN PHILLIP FLORES SEGUEL</t>
+          <t>LAURA CID PONSOT</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>OTORRINO_1</t>
+          <t>OTORRINO_3</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>GENERAL_3</t>
+          <t>OTORRINO_2</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2776,146 +2776,56 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>BLOQUE 13</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>MARIA ELENA PEREIRA JIMENEZ</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>OTORRINO_3</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>TRAUMATO_1</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>OTORRINOLARINGOLOGIA</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>2</v>
-      </c>
-      <c r="G60" t="n">
-        <v>6</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2</v>
-      </c>
-      <c r="J60" t="n">
-        <v>13</v>
-      </c>
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>BLOQUE 14</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>EDGARD NEFTALY MUÑOZ ROCHA</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>OTORRINO_2</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>OTORRINO_3</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>OTORRINOLARINGOLOGIA</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>2</v>
-      </c>
-      <c r="G61" t="n">
-        <v>6</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2</v>
-      </c>
-      <c r="J61" t="n">
-        <v>13</v>
-      </c>
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>BLOQUE 15</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>ELIA DEL CARMEN PEREIRA SOBARZO</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>OTORRINO_2</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>OFTALMO_2</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>OTORRINOLARINGOLOGIA</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>6</v>
-      </c>
-      <c r="H62" t="n">
-        <v>3</v>
-      </c>
-      <c r="I62" t="n">
-        <v>2</v>
-      </c>
-      <c r="J62" t="n">
-        <v>11</v>
-      </c>
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr"/>

--- a/output/LPM/instance2_Schedule_vCp2n150s18d1.xlsx
+++ b/output/LPM/instance2_Schedule_vCp2n150s18d1.xlsx
@@ -562,12 +562,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BLOQUE 4</t>
+          <t>BLOQUE 5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NAYADETH ESTEFANY CHAIHUEQUE ARIAS</t>
+          <t>LISETTE PATRICIA MUÑOZ ARRATIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -598,23 +598,23 @@
         <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BLOQUE 8</t>
+          <t>BLOQUE 6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAURA MATUS NECUL</t>
+          <t>LISETTE PATRICIA MUÑOZ ARRATIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>GENERAL_3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -624,86 +624,86 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CIRUGIA INFANTIL</t>
+          <t>CIRUGIA GENERAL</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BLOQUE 9</t>
+          <t>BLOQUE 7</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DAVID ALONSO CALDERON VALENZUELA</t>
+          <t>MARCELA ANDREA JARA ROCHA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>INFANTIL_3</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>OTORRINO_3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CIRUGIA INFANTIL</t>
+          <t>CIRUGIA GENERAL</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BLOQUE 10</t>
+          <t>BLOQUE 8</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>JOAQUIN IGNACIO VERDUGO BURGOS</t>
+          <t>MAURA MATUS NECUL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>INFANTIL_3</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -715,13 +715,13 @@
         <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
         <v>13</v>
@@ -730,22 +730,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BLOQUE 11</t>
+          <t>BLOQUE 9</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SOFIA EMILIA GODOY LAGOS</t>
+          <t>MARTIN GONZALEZ MORIS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>INFANTIL_2</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TRAUMATO_3</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,37 +757,37 @@
         <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BLOQUE 12</t>
+          <t>BLOQUE 10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ESTEBAN ANDRES RIFFO FIERRO</t>
+          <t>SOFIA EMILIA GODOY LAGOS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>INFANTIL_3</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,13 +799,13 @@
         <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
         <v>13</v>
@@ -814,12 +814,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BLOQUE 13</t>
+          <t>BLOQUE 11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>VICENTE FABIAN ESCOBAR LUENGO</t>
+          <t>ALONSO DAMIAN NOVOA SAEZ</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>TRAUMATO_3</t>
+          <t>TRAUMATO_2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -856,22 +856,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BLOQUE 14</t>
+          <t>BLOQUE 12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ALONSO DAMIAN NOVOA SAEZ</t>
+          <t>ESTEBAN ANDRES RIFFO FIERRO</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>INFANTIL_3</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>OTORRINO_1</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -883,13 +883,13 @@
         <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>13</v>
@@ -898,22 +898,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BLOQUE 15</t>
+          <t>BLOQUE 13</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DIEGO IGNACIO SEPULVEDA BADILLA</t>
+          <t>GAEL MAURICIO ESPINOZA ALTAMIRANO</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>INFANTIL_2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>TRAUMATO_2</t>
+          <t>OTORRINO_2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -925,137 +925,137 @@
         <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PABELLON 1</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>BLOQUE 14</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SAMUEL ABRAHAN DAVILA LILLO</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>INFANTIL_3</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>GENERAL_1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>CIRUGIA INFANTIL</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BLOQUE 1</t>
+          <t>BLOQUE 15</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>JAVIERA AURORA HUAIQUIL MANQUEO</t>
+          <t>JOAQUIN IGNACIO VERDUGO BURGOS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>GENERAL_3</t>
+          <t>INFANTIL_3</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CIRUGIA GENERAL</t>
+          <t>CIRUGIA INFANTIL</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
         <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BLOQUE 3</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ROSA MARIA TERESA WILLSON SALDAÑA</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>GENERAL_1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>INFANTIL_1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>CIRUGIA GENERAL</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
-      </c>
-      <c r="G16" t="n">
-        <v>7</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>14</v>
-      </c>
+          <t>PABELLON 1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BLOQUE 4</t>
+          <t>BLOQUE 0</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MARCELA ANDREA JARA ROCHA</t>
+          <t>GIORGE ALEXANDER CACERES CIFUENTES</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>GENERAL_3</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>TRAUMATO_3</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1067,27 +1067,27 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BLOQUE 5</t>
+          <t>BLOQUE 1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NATALIA ANDREA RIFFO ITURRA</t>
+          <t>JAVIERA AURORA HUAIQUIL MANQUEO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>GINECO_3</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>6</v>
@@ -1118,18 +1118,18 @@
         <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BLOQUE 8</t>
+          <t>BLOQUE 3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GIORGE ALEXANDER CACERES CIFUENTES</t>
+          <t>MATIAS FERNANDO SAEZ TORRES</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>GINECO_2</t>
+          <t>OTORRINO_3</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1148,40 +1148,40 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H19" t="n">
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BLOQUE 9</t>
+          <t>BLOQUE 6</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DANIELA MACARENA TORRES VEGA</t>
+          <t>DAVID NICOLAS DIAZ CID</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GENERAL_2</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>TRAUMATO_1</t>
+          <t>OTORRINO_2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1193,27 +1193,27 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BLOQUE 10</t>
+          <t>BLOQUE 8</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FRANCISCO JAVIER BORQUEZ BORQUEZ</t>
+          <t>DANITZA EVELYN HUENCHUMIL MILLACHEO</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1250,12 +1250,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BLOQUE 12</t>
+          <t>BLOQUE 9</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FERNANDA MACARENA IBAÑEZ ASTETE</t>
+          <t>CECILIA VALERIA MONCADA ARRIAGADA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>TRAUMATO_1</t>
+          <t>INFANTIL_2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1292,12 +1292,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BLOQUE 13</t>
+          <t>BLOQUE 10</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RAYDORETH ISABEL GODOY ALVARADO</t>
+          <t>CECILIA VALERIA MONCADA ARRIAGADA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>TRAUMATO_1</t>
+          <t>INFANTIL_2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1334,12 +1334,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BLOQUE 14</t>
+          <t>BLOQUE 11</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>KATHERINE SOLEDAD FLORES ESCALONA</t>
+          <t>JENIFER NICOLE MENDEZ ESPINOZA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1376,12 +1376,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BLOQUE 15</t>
+          <t>BLOQUE 12</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>JOSE MANUEL SAGREDO TAPIA</t>
+          <t>JENIFER NICOLE MENDEZ ESPINOZA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>INFANTIL_2</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1418,164 +1418,164 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PABELLON 2</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+          <t>BLOQUE 13</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>RAYDORETH ISABEL GODOY ALVARADO</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>GENERAL_2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>TRAUMATO_1</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>CIRUGIA GENERAL</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BLOQUE 0</t>
+          <t>BLOQUE 14</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>JOSE MANUEL CHANDIA CATRIUPAY</t>
+          <t>CARMEN GLORIA SANCHEZ PEREIRA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>GENERAL_2</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>TRAUMATO_2</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>OFTALMOLOGIA</t>
+          <t>CIRUGIA GENERAL</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BLOQUE 1</t>
+          <t>BLOQUE 15</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>JOSE GARCES RIQUELME</t>
+          <t>JOSE MANUEL SAGREDO TAPIA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>GENERAL_2</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>INFANTIL_2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>OFTALMOLOGIA</t>
+          <t>CIRUGIA GENERAL</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BLOQUE 2</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>JOSE GARCES RIQUELME</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>OFTALMO_1</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>GENERAL_1</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>OFTALMOLOGIA</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3</v>
-      </c>
+          <t>PABELLON 2</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BLOQUE 3</t>
+          <t>BLOQUE 0</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DESIDERIO AREVALO SOTO</t>
+          <t>JOSE MANUEL CHANDIA CATRIUPAY</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>OFTALMO_2</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>INFANTIL_2</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1593,31 +1593,31 @@
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BLOQUE 4</t>
+          <t>BLOQUE 1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>JOSE OSCAR ISLA ROCHA</t>
+          <t>JOSE GARCES RIQUELME</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>OFTALMO_2</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>GINECO_2</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1626,7 +1626,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1635,21 +1635,21 @@
         <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BLOQUE 5</t>
+          <t>BLOQUE 2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>LUIS ALEJANDRO PACHECO LAGOS</t>
+          <t>JOSE GARCES RIQUELME</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1686,12 +1686,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BLOQUE 6</t>
+          <t>BLOQUE 3</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>JUAN DE LA CRUZ MUÑOZ ASTETE</t>
+          <t>DESIDERIO AREVALO SOTO</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1710,7 +1710,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1722,18 +1722,18 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BLOQUE 7</t>
+          <t>BLOQUE 4</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CECILIA DEL CARMEN BARRALES GONZALEZ</t>
+          <t>FILOMENA DEL CARMEN  JARA GODOY</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>GENERAL_2</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1764,28 +1764,28 @@
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BLOQUE 8</t>
+          <t>BLOQUE 5</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ISAAC DE LA CRUZ INOSTROZA MELLAO</t>
+          <t>PATRICIO NICOLAS RAMIREZ FRITIS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>OFTALMO_3</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>GENERAL_3</t>
+          <t>TRAUMATO_3</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1794,40 +1794,40 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>3</v>
-      </c>
-      <c r="J35" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BLOQUE 9</t>
+          <t>BLOQUE 6</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ETELVINA DEL CARMEN SAEZ RAMIREZ</t>
+          <t>ILVA MAGDALENA CARRASCO MALDONADO</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>OFTALMO_3</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>GINECO_1</t>
+          <t>TRAUMATO_1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1836,30 +1836,30 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BLOQUE 10</t>
+          <t>BLOQUE 7</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MARIA TERESA LEAL FERNANDEZ</t>
+          <t>ETELVINA DEL CARMEN SAEZ RAMIREZ</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>OFTALMO_3</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1881,7 +1881,7 @@
         <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
         <v>2</v>
@@ -1890,18 +1890,18 @@
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BLOQUE 11</t>
+          <t>BLOQUE 8</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FILOMENA DEL CARMEN  JARA GODOY</t>
+          <t>JUAN DE LA CRUZ MUÑOZ ASTETE</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>OTORRINO_3</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>3</v>
@@ -1932,28 +1932,28 @@
         <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BLOQUE 12</t>
+          <t>BLOQUE 9</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PASCUALA LUISA QUILALEO LINCOÑIR</t>
+          <t>JOSE EDGARDO ERICES VALDEBENITO</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>OFTALMO_2</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>OTORRINO_3</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1965,27 +1965,27 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H39" t="n">
         <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J39" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BLOQUE 13</t>
+          <t>BLOQUE 10</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ISMAEL CONTRERAS RIQUELME</t>
+          <t>JOSE OSCAR ISLA ROCHA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>GINECO_3</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -2016,28 +2016,28 @@
         <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BLOQUE 14</t>
+          <t>BLOQUE 11</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ILVA MAGDALENA CARRASCO MALDONADO</t>
+          <t>MARIA TERESA LEAL FERNANDEZ</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>OFTALMO_3</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>TRAUMATO_3</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+      <c r="I41" t="n">
         <v>3</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>4</v>
       </c>
       <c r="J41" t="n">
         <v>9</v>
@@ -2064,12 +2064,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BLOQUE 15</t>
+          <t>BLOQUE 12</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>JOSE EDGARDO ERICES VALDEBENITO</t>
+          <t>CECILIA DEL CARMEN BARRALES GONZALEZ</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>OFTALMO_2</t>
+          <t>INFANTIL_2</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2088,7 +2088,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2100,170 +2100,170 @@
         <v>3</v>
       </c>
       <c r="J42" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PABELLON 3</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+          <t>BLOQUE 13</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>LUIS ALEJANDRO PACHECO LAGOS</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>OFTALMO_2</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>GINECO_1</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>OFTALMOLOGIA</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>3</v>
+      </c>
+      <c r="G43" t="n">
+        <v>7</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BLOQUE 0</t>
+          <t>BLOQUE 14</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ALEJANDRA MARISOL LIZANA MEZA</t>
+          <t>ISMAEL CONTRERAS RIQUELME</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>GINECO_3</t>
+          <t>OFTALMO_3</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>INFANTIL_3</t>
+          <t>OTORRINO_2</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>GINECOLOGIA</t>
+          <t>OFTALMOLOGIA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
         <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BLOQUE 1</t>
+          <t>BLOQUE 15</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PATRICIA VIVIANA  LEIVA CARRASCO</t>
+          <t>PASCUALA LUISA QUILALEO LINCOÑIR</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>GINECO_1</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>INFANTIL_2</t>
+          <t>OTORRINO_3</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>GINECOLOGIA</t>
+          <t>OFTALMOLOGIA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BLOQUE 2</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>RAQUEL AURORA CONTADOR JIMENEZ</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>GINECO_1</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>INFANTIL_1</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>GINECOLOGIA</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>4</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>7</v>
-      </c>
+          <t>PABELLON 3</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BLOQUE 3</t>
+          <t>BLOQUE 0</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CATYBELL MARIA DURAN ULLOA</t>
+          <t>ALEJANDRA MARISOL LIZANA MEZA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>GINECO_2</t>
+          <t>GINECO_3</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>GINECO_1</t>
+          <t>INFANTIL_3</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2275,27 +2275,27 @@
         <v>4</v>
       </c>
       <c r="G47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I47" t="n">
         <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BLOQUE 4</t>
+          <t>BLOQUE 1</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MARIA TERESA ROMERO LEVIO</t>
+          <t>RAQUEL AURORA CONTADOR JIMENEZ</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>OTORRINO_3</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2332,12 +2332,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BLOQUE 5</t>
+          <t>BLOQUE 2</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PATRICIA RIQUELME GONZALEZ</t>
+          <t>ISABEL DEL CARMEN MONARES MARTÍNEZ</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2374,22 +2374,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BLOQUE 6</t>
+          <t>BLOQUE 3</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PATRICIA ALEJANDRA OLAVE RAMOS</t>
+          <t>CATYBELL MARIA DURAN ULLOA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>GINECO_3</t>
+          <t>GINECO_2</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>INFANTIL_2</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2398,40 +2398,40 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G50" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
         <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BLOQUE 7</t>
+          <t>BLOQUE 4</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>VILMA DEL PILAR VERA AGUAYO</t>
+          <t>PATRICIA ALEJANDRA OLAVE RAMOS</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>GINECO_2</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>GINECO_1</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2443,153 +2443,153 @@
         <v>4</v>
       </c>
       <c r="G51" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BLOQUE 8</t>
+          <t>BLOQUE 5</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MARIA ELENA PEREIRA JIMENEZ</t>
+          <t>PATRICIA VIVIANA  LEIVA CARRASCO</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>OTORRINO_1</t>
+          <t>GINECO_2</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>TRAUMATO_3</t>
+          <t>OTORRINO_3</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>OTORRINOLARINGOLOGIA</t>
+          <t>GINECOLOGIA</t>
         </is>
       </c>
       <c r="F52" t="n">
         <v>4</v>
       </c>
       <c r="G52" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BLOQUE 9</t>
+          <t>BLOQUE 6</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>JONATHAN PHILLIP FLORES SEGUEL</t>
+          <t>MARIA TERESA ROMERO LEVIO</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>OTORRINO_3</t>
+          <t>GINECO_3</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>INFANTIL_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>OTORRINOLARINGOLOGIA</t>
+          <t>GINECOLOGIA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I53" t="n">
         <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BLOQUE 10</t>
+          <t>BLOQUE 7</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ELIA DEL CARMEN PEREIRA SOBARZO</t>
+          <t>PATRICIA RIQUELME GONZALEZ</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>OTORRINO_1</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>TRAUMATO_3</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>OTORRINOLARINGOLOGIA</t>
+          <t>GINECOLOGIA</t>
         </is>
       </c>
       <c r="F54" t="n">
         <v>4</v>
       </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BLOQUE 11</t>
+          <t>BLOQUE 8</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>JOCELYN MARISELLA MUÑOZ JARA</t>
+          <t>LAURA CID PONSOT</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>OFTALMO_3</t>
+          <t>INFANTIL_3</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2608,7 +2608,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G55" t="n">
         <v>6</v>
@@ -2620,28 +2620,28 @@
         <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BLOQUE 12</t>
+          <t>BLOQUE 9</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ANIBAL EDUARDO BURDILES MEDINA</t>
+          <t>HELMUTH FERNANDO ARIAS NAVARRO</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OTORRINO_3</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2668,22 +2668,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BLOQUE 13</t>
+          <t>BLOQUE 10</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>HELMUTH FERNANDO ARIAS NAVARRO</t>
+          <t>JOCELYN MARISELLA MUÑOZ JARA</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OTORRINO_3</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>GENERAL_3</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57" t="n">
         <v>6</v>
@@ -2704,13 +2704,13 @@
         <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BLOQUE 14</t>
+          <t>BLOQUE 11</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>OTORRINO_3</t>
+          <t>OTORRINO_2</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2734,7 +2734,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>6</v>
@@ -2746,86 +2746,176 @@
         <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>BLOQUE 12</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ELIA DEL CARMEN PEREIRA SOBARZO</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>OTORRINO_1</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>OTORRINO_2</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>OTORRINOLARINGOLOGIA</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>4</v>
+      </c>
+      <c r="G59" t="n">
+        <v>4</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>BLOQUE 13</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>JONATHAN PHILLIP FLORES SEGUEL</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>OTORRINO_3</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>OFTALMO_1</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>OTORRINOLARINGOLOGIA</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>3</v>
+      </c>
+      <c r="G60" t="n">
+        <v>6</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>BLOQUE 14</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ANIBAL EDUARDO BURDILES MEDINA</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>OTORRINO_1</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>GENERAL_3</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>OTORRINOLARINGOLOGIA</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>4</v>
+      </c>
+      <c r="G61" t="n">
+        <v>4</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
           <t>BLOQUE 15</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>LAURA CID PONSOT</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>OTORRINO_3</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>MARIA ELENA PEREIRA JIMENEZ</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
         <is>
           <t>OTORRINO_2</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>GINECO_1</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
         <is>
           <t>OTORRINOLARINGOLOGIA</t>
         </is>
       </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" t="n">
         <v>6</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H62" t="n">
         <v>3</v>
       </c>
-      <c r="I59" t="n">
-        <v>2</v>
-      </c>
-      <c r="J59" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr"/>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr"/>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr"/>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>2</v>
+      </c>
+      <c r="J62" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr"/>
